--- a/medicine/Autisme/Alis_Rowe/Alis_Rowe.xlsx
+++ b/medicine/Autisme/Alis_Rowe/Alis_Rowe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alis Rowe est une auteure et entrepreneuse britannique, qui écrit à propos des troubles du spectre autistique (TSA). En 2013, elle a fondé The Curly Hair Project, une entreprise sociale qui vise à soutenir les femmes et les filles ayant un TSA. Alis a le syndrome d'Asperger et elle évoque sa vie dans le but d'aider les personnes qui sont autistes, mais aussi leurs proches qui ne sont pas autistes (neurotypiques)[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alis Rowe est une auteure et entrepreneuse britannique, qui écrit à propos des troubles du spectre autistique (TSA). En 2013, elle a fondé The Curly Hair Project, une entreprise sociale qui vise à soutenir les femmes et les filles ayant un TSA. Alis a le syndrome d'Asperger et elle évoque sa vie dans le but d'aider les personnes qui sont autistes, mais aussi leurs proches qui ne sont pas autistes (neurotypiques),.
 Alis a reçu un certain nombre de récompenses célébrant ses réalisations entrepreneuriales et ses contributions à la société.
 Elle vit actuellement à Londres.
 </t>
@@ -513,10 +525,12 @@
           <t>Vie personnelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alis Rowe est née, et a grandi à Londres, et elle a obtenu une licence et une maîtrise de chimie[3]. En 2010, elle a commencé l'haltérophilie de niveau olympique.
-Après avoir été diagnostiquée Asperger, elle a lancé le Curly Hair Project en 2013, pour éduquer et soutenir les personnes autistes et celles qui ne le sont pas, par le biais d'articles de blog, d'affiches, de médias sociaux, de livres, de vidéos, d'applications, de podcasts, de séminaires et d'ateliers[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alis Rowe est née, et a grandi à Londres, et elle a obtenu une licence et une maîtrise de chimie. En 2010, elle a commencé l'haltérophilie de niveau olympique.
+Après avoir été diagnostiquée Asperger, elle a lancé le Curly Hair Project en 2013, pour éduquer et soutenir les personnes autistes et celles qui ne le sont pas, par le biais d'articles de blog, d'affiches, de médias sociaux, de livres, de vidéos, d'applications, de podcasts, de séminaires et d'ateliers.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Curly Hair Project</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alis Rowe a fondé The Curly Hair Project en 2013, avec pour objectif de sensibiliser la population sur le syndrome d'Asperger. Son autobiographie, Asperger's ans Me, a été publié en novembre 2013. Depuis, elle a écrit plus d'une douzaine de livres[5].
-Alis organise régulièrement des ateliers et des conférences au Royaume-Uni[6]. Elle a également gagné des prix pour son travail, notamment le Temple Grandin Award, en 2014[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alis Rowe a fondé The Curly Hair Project en 2013, avec pour objectif de sensibiliser la population sur le syndrome d'Asperger. Son autobiographie, Asperger's ans Me, a été publié en novembre 2013. Depuis, elle a écrit plus d'une douzaine de livres.
+Alis organise régulièrement des ateliers et des conférences au Royaume-Uni. Elle a également gagné des prix pour son travail, notamment le Temple Grandin Award, en 2014.
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Travaux publiés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alis Rowe a écrit de nombreux livres sur le Syndrome d'Asperger, parmi lesquels : « Asperger's and Me », « Asperger's Syndrome », de « Asperger's Syndrom for Friends », « Asperger's Syndrome in 13-16 Year Olds », « Asperger's Syndrome Meltdowns and Shutdowns », « Asperger's Syndrome Social Energy », « Asperger's Syndrome for the Neurotypical Partner », « Asperger's Syndrome and Anxiety », « Asperger's Syndrome in 8-11 Year Olds », « The 3rd Comic Book: For Teenagers with Asperger's Syndrome » et « The 4th Comic Book: For AS/NT Couples »[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alis Rowe a écrit de nombreux livres sur le Syndrome d'Asperger, parmi lesquels : « Asperger's and Me », « Asperger's Syndrome », de « Asperger's Syndrom for Friends », « Asperger's Syndrome in 13-16 Year Olds », « Asperger's Syndrome Meltdowns and Shutdowns », « Asperger's Syndrome Social Energy », « Asperger's Syndrome for the Neurotypical Partner », « Asperger's Syndrome and Anxiety », « Asperger's Syndrome in 8-11 Year Olds », « The 3rd Comic Book: For Teenagers with Asperger's Syndrome » et « The 4th Comic Book: For AS/NT Couples ».
 </t>
         </is>
       </c>
